--- a/src/Apuestas-Gambits/Serie A - Config Workflow.xlsx
+++ b/src/Apuestas-Gambits/Serie A - Config Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guido\Desktop\CD03\dm2023a\src\Apuestas-Gambits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B0A348D-2D7E-4DD7-9DAE-4BFB51DA437B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16CDF74-7F56-4DC7-9430-540196DB1D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
   <si>
     <t>DR</t>
   </si>
@@ -91,9 +91,6 @@
     <t>Tendencias2</t>
   </si>
   <si>
-    <t>Todo TRUE</t>
-  </si>
-  <si>
     <t>Training Strategy</t>
   </si>
   <si>
@@ -226,15 +223,9 @@
     <t>HT02</t>
   </si>
   <si>
-    <t>FE02</t>
-  </si>
-  <si>
     <t>Observación</t>
   </si>
   <si>
-    <t>Se cortó antes de tiempo</t>
-  </si>
-  <si>
     <t>TS04</t>
   </si>
   <si>
@@ -244,33 +235,9 @@
     <t>202103, 202102, 202101, 202012, 202011, 202010, 202009, 202008, 202007, 202006, 202005, 202004, 202003, 202002, 202001, 201912, 201911, 201910, 201909, 201908, 201907, 201906, 201905</t>
   </si>
   <si>
-    <t>FE01.02</t>
-  </si>
-  <si>
-    <t>FE03</t>
-  </si>
-  <si>
-    <t>FE04</t>
-  </si>
-  <si>
     <t>Todo TRUE - max y min</t>
   </si>
   <si>
-    <t>624gb ram insuficientes</t>
-  </si>
-  <si>
-    <t>FE05</t>
-  </si>
-  <si>
-    <t>FE06</t>
-  </si>
-  <si>
-    <t>FE07</t>
-  </si>
-  <si>
-    <t>FE08</t>
-  </si>
-  <si>
     <t>FE</t>
   </si>
   <si>
@@ -304,39 +271,12 @@
     <t>ZZ</t>
   </si>
   <si>
-    <t>Todo TRUE - min, max, promedio</t>
-  </si>
-  <si>
-    <t>FE09</t>
-  </si>
-  <si>
     <t>TS05</t>
   </si>
   <si>
-    <t>OK</t>
-  </si>
-  <si>
-    <t>FE10</t>
-  </si>
-  <si>
-    <t>FE11</t>
-  </si>
-  <si>
-    <t>FE12</t>
-  </si>
-  <si>
     <t>Estado</t>
   </si>
   <si>
-    <t>FE13</t>
-  </si>
-  <si>
-    <t>FE14</t>
-  </si>
-  <si>
-    <t>FE15</t>
-  </si>
-  <si>
     <t>TS06</t>
   </si>
   <si>
@@ -355,24 +295,6 @@
     <t>202107, 202103</t>
   </si>
   <si>
-    <t>FE16</t>
-  </si>
-  <si>
-    <t>FE17</t>
-  </si>
-  <si>
-    <t>FE18</t>
-  </si>
-  <si>
-    <t>FE19</t>
-  </si>
-  <si>
-    <t>Hubo swap, terminated</t>
-  </si>
-  <si>
-    <t>hubo swap, OK?</t>
-  </si>
-  <si>
     <t>Serie</t>
   </si>
   <si>
@@ -383,6 +305,9 @@
   </si>
   <si>
     <t>Agrego las 31 variables de FE creadas por Cristian Bessone</t>
+  </si>
+  <si>
+    <t>Sin nada, versión original</t>
   </si>
 </sst>
 </file>
@@ -473,8 +398,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E4848F5D-953A-4F62-82B0-7222398CF34D}" name="Table6" displayName="Table6" ref="A1:B2" totalsRowShown="0">
-  <autoFilter ref="A1:B2" xr:uid="{E4848F5D-953A-4F62-82B0-7222398CF34D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{E4848F5D-953A-4F62-82B0-7222398CF34D}" name="Table6" displayName="Table6" ref="A1:B3" totalsRowShown="0">
+  <autoFilter ref="A1:B3" xr:uid="{E4848F5D-953A-4F62-82B0-7222398CF34D}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{34832CFC-6B43-454C-B27F-A8E83E7EB674}" name="Versión"/>
     <tableColumn id="2" xr3:uid="{E02EA1D0-06AB-4750-BD08-D9D8B8DE9410}" name="Lógica"/>
@@ -484,8 +409,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B1A6007-7516-4CF7-908D-9706FCDAFDFA}" name="Table1" displayName="Table1" ref="A1:M21" totalsRowShown="0">
-  <autoFilter ref="A1:M21" xr:uid="{8B1A6007-7516-4CF7-908D-9706FCDAFDFA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B1A6007-7516-4CF7-908D-9706FCDAFDFA}" name="Table1" displayName="Table1" ref="A1:M2" totalsRowShown="0">
+  <autoFilter ref="A1:M2" xr:uid="{8B1A6007-7516-4CF7-908D-9706FCDAFDFA}"/>
   <tableColumns count="13">
     <tableColumn id="1" xr3:uid="{79E439E9-1F3D-4DD1-A524-74B46EAC0444}" name="Versión"/>
     <tableColumn id="2" xr3:uid="{3656E2E4-440F-4CB1-8D1D-BAD848F4B0BE}" name="num.trees"/>
@@ -830,21 +755,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:F4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
       </c>
       <c r="C1" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="D1" t="s">
         <v>1</v>
@@ -853,15 +778,15 @@
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
       <c r="G1" t="s">
-        <v>94</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>111</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>
@@ -876,10 +801,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75DC6958-4726-48DA-9BB3-2B3A93A88101}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B25" sqref="B25"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -893,15 +818,20 @@
         <v>4</v>
       </c>
       <c r="B1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>112</v>
-      </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B3" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
@@ -914,10 +844,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6DC643-BAFD-4FBD-9022-C3B409821E33}">
-  <dimension ref="A1:M29"/>
+  <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N30" sqref="N30"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -969,7 +899,7 @@
         <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
@@ -977,22 +907,22 @@
         <v>3</v>
       </c>
       <c r="B2">
-        <v>250</v>
+        <v>300</v>
       </c>
       <c r="C2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D2">
-        <v>600</v>
+        <v>733</v>
       </c>
       <c r="E2">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F2">
         <v>10881</v>
       </c>
       <c r="G2">
-        <v>0.999</v>
+        <v>0.3</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -1004,815 +934,30 @@
         <v>1</v>
       </c>
       <c r="K2" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="L2" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>67</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-      <c r="C3">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>600</v>
-      </c>
-      <c r="E3">
-        <v>50</v>
-      </c>
-      <c r="F3">
-        <v>10881</v>
-      </c>
-      <c r="G3">
-        <v>0.999</v>
-      </c>
-      <c r="H3" t="b">
-        <v>1</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3" t="b">
-        <v>1</v>
-      </c>
-      <c r="K3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" t="s">
-        <v>16</v>
-      </c>
-      <c r="M3" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>61</v>
-      </c>
-      <c r="B4">
-        <v>200</v>
-      </c>
-      <c r="C4">
-        <v>7</v>
-      </c>
-      <c r="D4">
-        <v>600</v>
-      </c>
-      <c r="E4">
-        <v>50</v>
-      </c>
-      <c r="F4">
-        <v>10881</v>
-      </c>
-      <c r="G4">
-        <v>0.999</v>
-      </c>
-      <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="b">
-        <v>1</v>
-      </c>
-      <c r="J4" t="b">
-        <v>1</v>
-      </c>
-      <c r="K4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L4" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>68</v>
-      </c>
-      <c r="B5">
-        <v>200</v>
-      </c>
-      <c r="C5">
-        <v>6</v>
-      </c>
-      <c r="D5">
-        <v>600</v>
-      </c>
-      <c r="E5">
-        <v>50</v>
-      </c>
-      <c r="F5">
-        <v>10881</v>
-      </c>
-      <c r="G5">
-        <v>0.999</v>
-      </c>
-      <c r="H5" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" t="b">
-        <v>1</v>
-      </c>
-      <c r="J5" t="b">
-        <v>1</v>
-      </c>
-      <c r="K5" t="s">
-        <v>16</v>
-      </c>
-      <c r="L5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M5" t="s">
-        <v>71</v>
-      </c>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>69</v>
-      </c>
-      <c r="B6">
-        <v>300</v>
-      </c>
-      <c r="C6">
-        <v>5</v>
-      </c>
-      <c r="D6">
-        <v>600</v>
-      </c>
-      <c r="E6">
-        <v>50</v>
-      </c>
-      <c r="F6">
-        <v>10881</v>
-      </c>
-      <c r="G6">
-        <v>0.999</v>
-      </c>
-      <c r="H6" t="b">
-        <v>1</v>
-      </c>
-      <c r="I6" t="b">
-        <v>1</v>
-      </c>
-      <c r="J6" t="b">
-        <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>16</v>
-      </c>
-      <c r="L6" t="s">
-        <v>16</v>
-      </c>
-      <c r="M6" t="s">
-        <v>71</v>
-      </c>
+      <c r="K6" s="1"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>72</v>
-      </c>
-      <c r="B7">
-        <v>100</v>
-      </c>
-      <c r="C7">
-        <v>5</v>
-      </c>
-      <c r="D7">
-        <v>600</v>
-      </c>
-      <c r="E7">
-        <v>50</v>
-      </c>
-      <c r="F7">
-        <v>10881</v>
-      </c>
-      <c r="G7">
-        <v>0.999</v>
-      </c>
-      <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="b">
-        <v>1</v>
-      </c>
-      <c r="J7" t="b">
-        <v>1</v>
-      </c>
-      <c r="K7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L7" t="s">
-        <v>70</v>
-      </c>
+      <c r="K7" s="1"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>73</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-      <c r="C8">
-        <v>4</v>
-      </c>
-      <c r="D8">
-        <v>600</v>
-      </c>
-      <c r="E8">
-        <v>50</v>
-      </c>
-      <c r="F8">
-        <v>10881</v>
-      </c>
-      <c r="G8">
-        <v>0.999</v>
-      </c>
-      <c r="H8" t="b">
-        <v>1</v>
-      </c>
-      <c r="I8" t="b">
-        <v>1</v>
-      </c>
-      <c r="J8" t="b">
-        <v>1</v>
-      </c>
-      <c r="K8" t="s">
-        <v>16</v>
-      </c>
-      <c r="L8" t="s">
-        <v>16</v>
-      </c>
+      <c r="K8" s="1"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>74</v>
-      </c>
-      <c r="B9">
-        <v>80</v>
-      </c>
-      <c r="C9">
-        <v>4</v>
-      </c>
-      <c r="D9">
-        <v>600</v>
-      </c>
-      <c r="E9">
-        <v>50</v>
-      </c>
-      <c r="F9">
-        <v>10881</v>
-      </c>
-      <c r="G9">
-        <v>0.999</v>
-      </c>
-      <c r="H9" t="b">
-        <v>1</v>
-      </c>
-      <c r="I9" t="b">
-        <v>1</v>
-      </c>
-      <c r="J9" t="b">
-        <v>1</v>
-      </c>
-      <c r="K9" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" t="s">
-        <v>70</v>
-      </c>
+      <c r="K9" s="1"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>75</v>
-      </c>
-      <c r="B10">
-        <v>80</v>
-      </c>
-      <c r="C10">
-        <v>8</v>
-      </c>
-      <c r="D10">
-        <v>500</v>
-      </c>
-      <c r="E10">
-        <v>40</v>
-      </c>
-      <c r="F10">
-        <v>10881</v>
-      </c>
-      <c r="G10">
-        <v>0.8</v>
-      </c>
-      <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="b">
-        <v>1</v>
-      </c>
-      <c r="J10" t="b">
-        <v>1</v>
-      </c>
-      <c r="K10" t="s">
-        <v>70</v>
-      </c>
-      <c r="L10" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>88</v>
-      </c>
-      <c r="B11">
-        <v>200</v>
-      </c>
-      <c r="C11">
-        <v>9</v>
-      </c>
-      <c r="D11">
-        <v>500</v>
-      </c>
-      <c r="E11">
-        <v>40</v>
-      </c>
-      <c r="F11">
-        <v>10881</v>
-      </c>
-      <c r="G11">
-        <v>0.8</v>
-      </c>
-      <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="b">
-        <v>1</v>
-      </c>
-      <c r="J11" t="b">
-        <v>1</v>
-      </c>
-      <c r="K11" t="s">
-        <v>87</v>
-      </c>
-      <c r="L11" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>91</v>
-      </c>
-      <c r="B12">
-        <v>200</v>
-      </c>
-      <c r="C12">
-        <v>10</v>
-      </c>
-      <c r="D12">
-        <v>300</v>
-      </c>
-      <c r="E12">
-        <v>40</v>
-      </c>
-      <c r="F12">
-        <v>10881</v>
-      </c>
-      <c r="G12">
-        <v>0.25</v>
-      </c>
-      <c r="H12" t="b">
-        <v>1</v>
-      </c>
-      <c r="I12" t="b">
-        <v>1</v>
-      </c>
-      <c r="J12" t="b">
-        <v>1</v>
-      </c>
-      <c r="K12" t="s">
-        <v>16</v>
-      </c>
-      <c r="L12" t="s">
-        <v>16</v>
-      </c>
-      <c r="M12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>92</v>
-      </c>
-      <c r="B13">
-        <v>200</v>
-      </c>
-      <c r="C13">
-        <v>10</v>
-      </c>
-      <c r="D13">
-        <v>400</v>
-      </c>
-      <c r="E13">
-        <v>40</v>
-      </c>
-      <c r="F13">
-        <v>10881</v>
-      </c>
-      <c r="G13">
-        <v>0.25</v>
-      </c>
-      <c r="H13" t="b">
-        <v>1</v>
-      </c>
-      <c r="I13" t="b">
-        <v>1</v>
-      </c>
-      <c r="J13" t="b">
-        <v>1</v>
-      </c>
-      <c r="K13" t="s">
-        <v>16</v>
-      </c>
-      <c r="L13" t="s">
-        <v>16</v>
-      </c>
-      <c r="M13" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14">
-        <v>200</v>
-      </c>
-      <c r="C14">
-        <v>10</v>
-      </c>
-      <c r="D14">
-        <v>600</v>
-      </c>
-      <c r="E14">
-        <v>40</v>
-      </c>
-      <c r="F14">
-        <v>10881</v>
-      </c>
-      <c r="G14">
-        <v>0.25</v>
-      </c>
-      <c r="H14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="b">
-        <v>1</v>
-      </c>
-      <c r="K14" t="s">
-        <v>16</v>
-      </c>
-      <c r="L14" t="s">
-        <v>16</v>
-      </c>
-      <c r="M14" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>95</v>
-      </c>
-      <c r="B15">
-        <v>200</v>
-      </c>
-      <c r="C15">
-        <v>10</v>
-      </c>
-      <c r="D15">
-        <v>800</v>
-      </c>
-      <c r="E15">
-        <v>40</v>
-      </c>
-      <c r="F15">
-        <v>10881</v>
-      </c>
-      <c r="G15">
-        <v>0.25</v>
-      </c>
-      <c r="H15" t="b">
-        <v>1</v>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="b">
-        <v>1</v>
-      </c>
-      <c r="K15" t="s">
-        <v>16</v>
-      </c>
-      <c r="L15" t="s">
-        <v>16</v>
-      </c>
-      <c r="M15" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>96</v>
-      </c>
-      <c r="B16">
-        <v>200</v>
-      </c>
-      <c r="C16">
-        <v>10</v>
-      </c>
-      <c r="D16">
-        <v>1000</v>
-      </c>
-      <c r="E16">
-        <v>40</v>
-      </c>
-      <c r="F16">
-        <v>10881</v>
-      </c>
-      <c r="G16">
-        <v>0.25</v>
-      </c>
-      <c r="H16" t="b">
-        <v>1</v>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="b">
-        <v>1</v>
-      </c>
-      <c r="K16" t="s">
-        <v>16</v>
-      </c>
-      <c r="L16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>97</v>
-      </c>
-      <c r="B17">
-        <v>200</v>
-      </c>
-      <c r="C17">
-        <v>10</v>
-      </c>
-      <c r="D17">
-        <v>1200</v>
-      </c>
-      <c r="E17">
-        <v>40</v>
-      </c>
-      <c r="F17">
-        <v>10881</v>
-      </c>
-      <c r="G17">
-        <v>0.25</v>
-      </c>
-      <c r="H17" t="b">
-        <v>1</v>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="b">
-        <v>1</v>
-      </c>
-      <c r="K17" t="s">
-        <v>16</v>
-      </c>
-      <c r="L17" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>104</v>
-      </c>
-      <c r="B18">
-        <v>200</v>
-      </c>
-      <c r="C18">
-        <v>9</v>
-      </c>
-      <c r="D18">
-        <v>300</v>
-      </c>
-      <c r="E18">
-        <v>40</v>
-      </c>
-      <c r="F18">
-        <v>10881</v>
-      </c>
-      <c r="G18">
-        <v>0.25</v>
-      </c>
-      <c r="H18" t="b">
-        <v>1</v>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="b">
-        <v>1</v>
-      </c>
-      <c r="K18" t="s">
-        <v>16</v>
-      </c>
-      <c r="L18" t="s">
-        <v>16</v>
-      </c>
-      <c r="M18" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>105</v>
-      </c>
-      <c r="B19">
-        <v>200</v>
-      </c>
-      <c r="C19">
-        <v>9</v>
-      </c>
-      <c r="D19">
-        <v>400</v>
-      </c>
-      <c r="E19">
-        <v>40</v>
-      </c>
-      <c r="F19">
-        <v>10881</v>
-      </c>
-      <c r="G19">
-        <v>0.25</v>
-      </c>
-      <c r="H19" t="b">
-        <v>1</v>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="b">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>16</v>
-      </c>
-      <c r="L19" t="s">
-        <v>16</v>
-      </c>
-      <c r="M19" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>106</v>
-      </c>
-      <c r="B20">
-        <v>200</v>
-      </c>
-      <c r="C20">
-        <v>9</v>
-      </c>
-      <c r="D20">
-        <v>600</v>
-      </c>
-      <c r="E20">
-        <v>40</v>
-      </c>
-      <c r="F20">
-        <v>10881</v>
-      </c>
-      <c r="G20">
-        <v>0.25</v>
-      </c>
-      <c r="H20" t="b">
-        <v>1</v>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="b">
-        <v>1</v>
-      </c>
-      <c r="K20" t="s">
-        <v>16</v>
-      </c>
-      <c r="L20" t="s">
-        <v>16</v>
-      </c>
-      <c r="M20" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21">
-        <v>200</v>
-      </c>
-      <c r="C21">
-        <v>9</v>
-      </c>
-      <c r="D21">
-        <v>800</v>
-      </c>
-      <c r="E21">
-        <v>40</v>
-      </c>
-      <c r="F21">
-        <v>10881</v>
-      </c>
-      <c r="G21">
-        <v>0.25</v>
-      </c>
-      <c r="H21" t="b">
-        <v>1</v>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="b">
-        <v>1</v>
-      </c>
-      <c r="K21" t="s">
-        <v>16</v>
-      </c>
-      <c r="L21" t="s">
-        <v>16</v>
-      </c>
-      <c r="M21" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="I24">
-        <v>329920</v>
-      </c>
-      <c r="K24" s="1">
-        <f t="shared" ref="K24:K29" si="0">$I$24/D12</f>
-        <v>1099.7333333333333</v>
-      </c>
-      <c r="L24" s="1">
-        <f>200*2^10</f>
-        <v>204800</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="K25" s="1">
-        <f t="shared" si="0"/>
-        <v>824.8</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="K26" s="1">
-        <f t="shared" si="0"/>
-        <v>549.86666666666667</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="K27" s="1">
-        <f t="shared" si="0"/>
-        <v>412.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="K28" s="1">
-        <f t="shared" si="0"/>
-        <v>329.92</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="K29" s="1">
-        <f t="shared" si="0"/>
-        <v>274.93333333333334</v>
-      </c>
+      <c r="K10" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1844,7 +989,7 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
@@ -1852,25 +997,25 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" t="s">
         <v>18</v>
       </c>
-      <c r="D2" t="s">
-        <v>19</v>
-      </c>
       <c r="E2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" t="s">
         <v>25</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>26</v>
-      </c>
-      <c r="H2" t="s">
-        <v>27</v>
       </c>
       <c r="I2" t="s">
         <v>9</v>
@@ -1878,19 +1023,19 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C3">
         <v>202109</v>
       </c>
       <c r="D3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" t="s">
         <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>32</v>
       </c>
       <c r="F3">
         <v>202106</v>
@@ -1907,19 +1052,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4" t="s">
         <v>28</v>
-      </c>
-      <c r="B4" t="s">
-        <v>29</v>
       </c>
       <c r="C4">
         <v>202109</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F4">
         <v>202106</v>
@@ -1936,19 +1081,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
         <v>33</v>
-      </c>
-      <c r="B5" t="s">
-        <v>34</v>
       </c>
       <c r="C5">
         <v>202109</v>
       </c>
       <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5" t="s">
         <v>35</v>
-      </c>
-      <c r="E5" t="s">
-        <v>36</v>
       </c>
       <c r="F5">
         <v>202106</v>
@@ -1965,19 +1110,19 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C6">
         <v>202107</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F6">
         <v>202104</v>
@@ -1994,19 +1139,19 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>89</v>
+        <v>76</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7">
         <v>202109</v>
       </c>
       <c r="D7" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
       </c>
       <c r="F7">
         <v>202106</v>
@@ -2023,25 +1168,25 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
       <c r="B8" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="C8">
         <v>202109</v>
       </c>
       <c r="D8" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="E8" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
       <c r="H8">
         <v>0.1</v>
@@ -2089,13 +1234,13 @@
   <sheetData>
     <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" t="s">
         <v>43</v>
-      </c>
-      <c r="F1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:18" x14ac:dyDescent="0.35">
@@ -2103,69 +1248,69 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>39</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>40</v>
       </c>
-      <c r="D2" t="s">
-        <v>41</v>
-      </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>46</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>47</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>53</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>54</v>
       </c>
-      <c r="O2" t="s">
+      <c r="P2" t="s">
         <v>55</v>
       </c>
-      <c r="P2" t="s">
+      <c r="Q2" t="s">
         <v>56</v>
       </c>
-      <c r="Q2" t="s">
+      <c r="R2" t="s">
         <v>57</v>
-      </c>
-      <c r="R2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -2212,16 +1357,16 @@
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D4" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -2290,7 +1435,7 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.35">
@@ -2298,27 +1443,27 @@
         <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>82</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>79</v>
+        <v>68</v>
       </c>
       <c r="D2" t="s">
-        <v>80</v>
+        <v>69</v>
       </c>
       <c r="E2" t="s">
-        <v>81</v>
+        <v>70</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="K2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="B3">
         <v>1</v>
@@ -2333,7 +1478,7 @@
         <v>100</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>73</v>
       </c>
     </row>
   </sheetData>

--- a/src/Apuestas-Gambits/Serie A - Config Workflow.xlsx
+++ b/src/Apuestas-Gambits/Serie A - Config Workflow.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guido\Desktop\CD03\dm2023a\src\Apuestas-Gambits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B16CDF74-7F56-4DC7-9430-540196DB1D31}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1D2CB7-732A-4202-B19A-1A804468C272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="103">
   <si>
     <t>DR</t>
   </si>
@@ -307,7 +307,49 @@
     <t>Agrego las 31 variables de FE creadas por Cristian Bessone</t>
   </si>
   <si>
-    <t>Sin nada, versión original</t>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Versión original</t>
+  </si>
+  <si>
+    <t>Swp, 624gb ram insuficientes</t>
+  </si>
+  <si>
+    <t>FE02</t>
+  </si>
+  <si>
+    <t>T1 Meses</t>
+  </si>
+  <si>
+    <t>T2 Meses</t>
+  </si>
+  <si>
+    <t>Lógica Canaritos</t>
+  </si>
+  <si>
+    <t>Canaritos antes de cada proceso diferente</t>
+  </si>
+  <si>
+    <t>Canaritos al final</t>
+  </si>
+  <si>
+    <t>Tremendo error poner ambas tendencias en igual cantidad de meses</t>
+  </si>
+  <si>
+    <t>Todo TRUE</t>
+  </si>
+  <si>
+    <t>FE03</t>
+  </si>
+  <si>
+    <t>FE04</t>
+  </si>
+  <si>
+    <t>FE05</t>
+  </si>
+  <si>
+    <t>FE06</t>
   </si>
 </sst>
 </file>
@@ -360,15 +402,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -385,7 +434,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F7D7D7A1-E25A-4312-B092-3FC812CAE881}" name="Table4" displayName="Table4" ref="A1:G4" totalsRowShown="0">
   <autoFilter ref="A1:G4" xr:uid="{F7D7D7A1-E25A-4312-B092-3FC812CAE881}"/>
   <tableColumns count="7">
-    <tableColumn id="6" xr3:uid="{4DBF580A-B869-4212-8B16-9CD5F93AA6EF}" name="Serie"/>
+    <tableColumn id="6" xr3:uid="{4DBF580A-B869-4212-8B16-9CD5F93AA6EF}" name="Serie" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{83E86F5D-5C57-4F47-A2A5-02CB3005DEC1}" name="DR"/>
     <tableColumn id="1" xr3:uid="{EE346C9F-4A34-4B95-BB20-852B9BAFD055}" name="FE"/>
     <tableColumn id="2" xr3:uid="{8272D39F-3A5D-48DB-A1CE-ECEBD9F35F38}" name="TS"/>
@@ -409,21 +458,24 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B1A6007-7516-4CF7-908D-9706FCDAFDFA}" name="Table1" displayName="Table1" ref="A1:M2" totalsRowShown="0">
-  <autoFilter ref="A1:M2" xr:uid="{8B1A6007-7516-4CF7-908D-9706FCDAFDFA}"/>
-  <tableColumns count="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B1A6007-7516-4CF7-908D-9706FCDAFDFA}" name="Table1" displayName="Table1" ref="A1:P7" totalsRowShown="0">
+  <autoFilter ref="A1:P7" xr:uid="{8B1A6007-7516-4CF7-908D-9706FCDAFDFA}"/>
+  <tableColumns count="16">
     <tableColumn id="1" xr3:uid="{79E439E9-1F3D-4DD1-A524-74B46EAC0444}" name="Versión"/>
     <tableColumn id="2" xr3:uid="{3656E2E4-440F-4CB1-8D1D-BAD848F4B0BE}" name="num.trees"/>
     <tableColumn id="3" xr3:uid="{10FB91EE-262C-4F4E-8AF1-3E07C56E273D}" name="max.depth"/>
     <tableColumn id="4" xr3:uid="{77E57216-EDE3-47A6-AF17-E3FD024CD8C4}" name="min.node.size"/>
     <tableColumn id="5" xr3:uid="{4BE25C28-31B2-43DA-AE14-E051C7467A2E}" name="mtry"/>
     <tableColumn id="6" xr3:uid="{67D9D5C2-E201-4851-83D1-A2C9F6200B9F}" name="semilla"/>
-    <tableColumn id="7" xr3:uid="{8DC1040B-4CDA-467B-A151-7A711098FE28}" name="Canarios"/>
     <tableColumn id="8" xr3:uid="{6B7AB7C8-A54F-433D-9147-343E34CAA77F}" name="lag1"/>
     <tableColumn id="9" xr3:uid="{0D6D7043-02C8-49D9-9448-0B967821482C}" name="lag2"/>
     <tableColumn id="10" xr3:uid="{39786EDE-2AE2-47D2-9FCF-B04B548A9E52}" name="lag3"/>
     <tableColumn id="11" xr3:uid="{3D7C81A1-7871-4F5B-A042-4EE0E4805AED}" name="Tendencias1"/>
+    <tableColumn id="14" xr3:uid="{C705A521-2AE5-402B-810A-F2651DD74C72}" name="T1 Meses"/>
     <tableColumn id="12" xr3:uid="{AD83C31A-FBA4-4767-957C-932A355E01B8}" name="Tendencias2"/>
+    <tableColumn id="15" xr3:uid="{2246903D-5159-46CA-9442-372148823E43}" name="T2 Meses"/>
+    <tableColumn id="7" xr3:uid="{8DC1040B-4CDA-467B-A151-7A711098FE28}" name="Canarios"/>
+    <tableColumn id="16" xr3:uid="{45ADBC44-8B8C-4EB2-9C75-B4EEF364366E}" name="Lógica Canaritos"/>
     <tableColumn id="13" xr3:uid="{BC773EFB-6D31-4921-BEDE-9DC8DC5DB42C}" name="Observación"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -753,10 +805,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -785,9 +837,27 @@
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
+      <c r="A2" s="2" t="s">
         <v>85</v>
       </c>
+      <c r="B2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A3" s="2"/>
+      <c r="B3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A4" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -804,7 +874,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -822,8 +892,11 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>88</v>
+      </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -844,24 +917,31 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6DC643-BAFD-4FBD-9022-C3B409821E33}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:R10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.453125" customWidth="1"/>
-    <col min="2" max="2" width="11.6328125" customWidth="1"/>
-    <col min="3" max="3" width="12" customWidth="1"/>
-    <col min="4" max="4" width="14.90625" customWidth="1"/>
-    <col min="6" max="6" width="9" customWidth="1"/>
-    <col min="7" max="7" width="10.08984375" customWidth="1"/>
-    <col min="11" max="12" width="13.36328125" customWidth="1"/>
+    <col min="2" max="2" width="11.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.1796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.08984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.90625" bestFit="1" customWidth="1"/>
+    <col min="7" max="9" width="6.453125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="20.1796875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="10.90625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.36328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="16.7265625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="25.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -881,28 +961,37 @@
         <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="I1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="L1" t="s">
         <v>15</v>
       </c>
       <c r="M1" t="s">
+        <v>93</v>
+      </c>
+      <c r="N1" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" t="s">
+        <v>94</v>
+      </c>
+      <c r="P1" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -921,8 +1010,8 @@
       <c r="F2">
         <v>10881</v>
       </c>
-      <c r="G2">
-        <v>0.3</v>
+      <c r="G2" t="b">
+        <v>1</v>
       </c>
       <c r="H2" t="b">
         <v>1</v>
@@ -930,36 +1019,271 @@
       <c r="I2" t="b">
         <v>1</v>
       </c>
-      <c r="J2" t="b">
-        <v>1</v>
-      </c>
-      <c r="K2" t="s">
+      <c r="J2" t="s">
         <v>64</v>
+      </c>
+      <c r="K2">
+        <v>6</v>
       </c>
       <c r="L2" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="K6" s="1"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="K7" s="1"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="M2">
+        <v>6</v>
+      </c>
+      <c r="N2">
+        <v>0.3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>96</v>
+      </c>
+      <c r="P2" t="s">
+        <v>90</v>
+      </c>
+      <c r="R2" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>91</v>
+      </c>
+      <c r="B3">
+        <v>250</v>
+      </c>
+      <c r="C3">
+        <v>8</v>
+      </c>
+      <c r="D3">
+        <v>733</v>
+      </c>
+      <c r="E3">
+        <v>55</v>
+      </c>
+      <c r="F3">
+        <v>10881</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="b">
+        <v>1</v>
+      </c>
+      <c r="I3" t="b">
+        <v>1</v>
+      </c>
+      <c r="J3" t="s">
+        <v>98</v>
+      </c>
+      <c r="K3">
+        <v>4</v>
+      </c>
+      <c r="L3" t="b">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>0.3</v>
+      </c>
+      <c r="O3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B4">
+        <v>250</v>
+      </c>
+      <c r="C4">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>733</v>
+      </c>
+      <c r="E4">
+        <v>55</v>
+      </c>
+      <c r="F4">
+        <v>10881</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="b">
+        <v>1</v>
+      </c>
+      <c r="I4" t="b">
+        <v>1</v>
+      </c>
+      <c r="J4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K4">
+        <v>6</v>
+      </c>
+      <c r="L4" t="b">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>0.3</v>
+      </c>
+      <c r="O4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>100</v>
+      </c>
+      <c r="B5">
+        <v>250</v>
+      </c>
+      <c r="C5">
+        <v>8</v>
+      </c>
+      <c r="D5">
+        <v>733</v>
+      </c>
+      <c r="E5">
+        <v>55</v>
+      </c>
+      <c r="F5">
+        <v>10881</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" t="b">
+        <v>1</v>
+      </c>
+      <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5">
+        <v>8</v>
+      </c>
+      <c r="L5" t="b">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>0.3</v>
+      </c>
+      <c r="O5" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>101</v>
+      </c>
+      <c r="B6">
+        <v>250</v>
+      </c>
+      <c r="C6">
+        <v>8</v>
+      </c>
+      <c r="D6">
+        <v>733</v>
+      </c>
+      <c r="E6">
+        <v>55</v>
+      </c>
+      <c r="F6">
+        <v>10881</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="b">
+        <v>1</v>
+      </c>
+      <c r="I6" t="b">
+        <v>1</v>
+      </c>
+      <c r="J6" t="s">
+        <v>98</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6" t="s">
+        <v>98</v>
+      </c>
+      <c r="M6">
+        <v>8</v>
+      </c>
+      <c r="N6">
+        <v>0.3</v>
+      </c>
+      <c r="O6" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>102</v>
+      </c>
+      <c r="B7">
+        <v>250</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>733</v>
+      </c>
+      <c r="E7">
+        <v>55</v>
+      </c>
+      <c r="F7">
+        <v>10881</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" t="b">
+        <v>1</v>
+      </c>
+      <c r="J7" t="s">
+        <v>98</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7" t="s">
+        <v>98</v>
+      </c>
+      <c r="M7">
+        <v>8</v>
+      </c>
+      <c r="N7">
+        <v>0.3</v>
+      </c>
+      <c r="O7" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.35">
       <c r="K8" s="1"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L8" s="1"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.35">
       <c r="K9" s="1"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="L9" s="1"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.35">
       <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>

--- a/src/Apuestas-Gambits/Serie A - Config Workflow.xlsx
+++ b/src/Apuestas-Gambits/Serie A - Config Workflow.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\guido\Desktop\CD03\dm2023a\src\Apuestas-Gambits\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C1D2CB7-732A-4202-B19A-1A804468C272}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE8CD2BE-ABEA-4A74-A53D-1F01554FAA02}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="155" uniqueCount="106">
   <si>
     <t>DR</t>
   </si>
@@ -307,9 +307,6 @@
     <t>Agrego las 31 variables de FE creadas por Cristian Bessone</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Versión original</t>
   </si>
   <si>
@@ -350,6 +347,18 @@
   </si>
   <si>
     <t>FE06</t>
+  </si>
+  <si>
+    <t>DR00</t>
+  </si>
+  <si>
+    <t>Falló, swp</t>
+  </si>
+  <si>
+    <t>Corrió pero hubo swp</t>
+  </si>
+  <si>
+    <t>me mataron la máquina</t>
   </si>
 </sst>
 </file>
@@ -431,8 +440,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F7D7D7A1-E25A-4312-B092-3FC812CAE881}" name="Table4" displayName="Table4" ref="A1:G4" totalsRowShown="0">
-  <autoFilter ref="A1:G4" xr:uid="{F7D7D7A1-E25A-4312-B092-3FC812CAE881}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{F7D7D7A1-E25A-4312-B092-3FC812CAE881}" name="Table4" displayName="Table4" ref="A1:G8" totalsRowShown="0">
+  <autoFilter ref="A1:G8" xr:uid="{F7D7D7A1-E25A-4312-B092-3FC812CAE881}"/>
   <tableColumns count="7">
     <tableColumn id="6" xr3:uid="{4DBF580A-B869-4212-8B16-9CD5F93AA6EF}" name="Serie" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{83E86F5D-5C57-4F47-A2A5-02CB3005DEC1}" name="DR"/>
@@ -805,10 +814,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P10" sqref="P10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -841,23 +850,98 @@
         <v>85</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C2" t="s">
         <v>3</v>
       </c>
+      <c r="G2" t="s">
+        <v>103</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A3" s="2"/>
+      <c r="A3" s="2" t="s">
+        <v>85</v>
+      </c>
       <c r="B3" t="s">
         <v>86</v>
       </c>
       <c r="C3" t="s">
-        <v>3</v>
+        <v>90</v>
+      </c>
+      <c r="G3" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A4" s="2"/>
+      <c r="A4" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>98</v>
+      </c>
+      <c r="G4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C5" t="s">
+        <v>98</v>
+      </c>
+      <c r="G5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A6" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C6" t="s">
+        <v>99</v>
+      </c>
+      <c r="G6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A7" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A8" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" t="s">
+        <v>101</v>
+      </c>
+      <c r="G8" t="s">
+        <v>104</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -874,7 +958,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -893,10 +977,10 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B2" t="s">
         <v>88</v>
-      </c>
-      <c r="B2" t="s">
-        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
@@ -919,7 +1003,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F6DC643-BAFD-4FBD-9022-C3B409821E33}">
   <dimension ref="A1:R10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
@@ -973,19 +1057,19 @@
         <v>14</v>
       </c>
       <c r="K1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="L1" t="s">
         <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="N1" t="s">
         <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="P1" t="s">
         <v>60</v>
@@ -1035,18 +1119,18 @@
         <v>0.3</v>
       </c>
       <c r="O2" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" t="s">
+        <v>89</v>
+      </c>
+      <c r="R2" t="s">
         <v>96</v>
-      </c>
-      <c r="P2" t="s">
-        <v>90</v>
-      </c>
-      <c r="R2" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B3">
         <v>250</v>
@@ -1073,7 +1157,7 @@
         <v>1</v>
       </c>
       <c r="J3" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K3">
         <v>4</v>
@@ -1085,12 +1169,12 @@
         <v>0.3</v>
       </c>
       <c r="O3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B4">
         <v>250</v>
@@ -1117,7 +1201,7 @@
         <v>1</v>
       </c>
       <c r="J4" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K4">
         <v>6</v>
@@ -1129,12 +1213,12 @@
         <v>0.3</v>
       </c>
       <c r="O4" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B5">
         <v>250</v>
@@ -1161,7 +1245,7 @@
         <v>1</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K5">
         <v>8</v>
@@ -1173,12 +1257,12 @@
         <v>0.3</v>
       </c>
       <c r="O5" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B6">
         <v>250</v>
@@ -1205,13 +1289,13 @@
         <v>1</v>
       </c>
       <c r="J6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K6">
         <v>4</v>
       </c>
       <c r="L6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M6">
         <v>8</v>
@@ -1220,12 +1304,12 @@
         <v>0.3</v>
       </c>
       <c r="O6" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="7" spans="1:18" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B7">
         <v>250</v>
@@ -1252,13 +1336,13 @@
         <v>1</v>
       </c>
       <c r="J7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="K7">
         <v>4</v>
       </c>
       <c r="L7" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="M7">
         <v>8</v>
@@ -1267,7 +1351,7 @@
         <v>0.3</v>
       </c>
       <c r="O7" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:18" x14ac:dyDescent="0.35">
